--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2020_bg_config_2020_bg.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2020_bg_config_2020_bg.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QHISPC' 'QEDLESHI' 'QESL' 'PPUNIT' 'QMOHO' 'QEXTRCT' 'QNOHLTH']</t>
+          <t>['PPUNIT' 'QMOHO' 'QNOHLTH' 'QESL' 'QEXTRCT' 'QEDLESHI' 'QHISPC']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['MDHSEVAL' 'PERCAP' 'QRICH']</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QRENTER' 'QNOAUTO' 'QPOVTY']</t>
+          <t>['QRENTER' 'QPOVTY' 'QNOAUTO']</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -605,301 +605,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7423692409808132</v>
+        <v>0.5835173012229987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3098526192010139</v>
+        <v>-0.03689746599726486</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1486952805300278</v>
+        <v>-0.1272499935557986</v>
       </c>
       <c r="E2" t="n">
-        <v>0.094005840828273</v>
+        <v>-0.4204908199981543</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04885413386050171</v>
+        <v>0.1006093478331559</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2354826891675083</v>
+        <v>0.1309775242948369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QMOHO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8352779333047565</v>
+        <v>0.4515387087259952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1442623975982583</v>
+        <v>0.1342118379902718</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00231782921856651</v>
+        <v>0.0353306159147624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1530479561558826</v>
+        <v>-0.163077262404493</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02604026936042655</v>
+        <v>-0.01675659395085196</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1765466356682173</v>
+        <v>0.001862666932571315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7463154824421743</v>
+        <v>0.6038940761359826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1383746645011497</v>
+        <v>0.3577588881267432</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06828868527601548</v>
+        <v>-0.07977624745702566</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2025402340571182</v>
+        <v>0.2571839929779696</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04405009511970779</v>
+        <v>-0.09534314892948142</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0908686559247108</v>
+        <v>0.1820152554670151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5835173005142911</v>
+        <v>0.7463154814545103</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0368974640021563</v>
+        <v>0.1383746652452346</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1272499938826282</v>
+        <v>-0.0682886831846005</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4204908313591273</v>
+        <v>0.2025402381735883</v>
       </c>
       <c r="F5" t="n">
-        <v>0.100609350738574</v>
+        <v>-0.04405009699261239</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1309775167184213</v>
+        <v>0.09086864701068331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QMOHO</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4515387052238961</v>
+        <v>0.766201780018838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1342118384912719</v>
+        <v>0.1246192435032384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03533061666801631</v>
+        <v>0.05703178061083863</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1630772609766823</v>
+        <v>0.1061640298478816</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01675659519117251</v>
+        <v>-0.1262460499319534</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00186266815762837</v>
+        <v>0.00427583631954124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7662017863458653</v>
+        <v>0.8352779434518517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1246192445756847</v>
+        <v>0.1442623962431169</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05703177948218069</v>
+        <v>0.002317831369016124</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1061640312911737</v>
+        <v>0.1530479681707566</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1262460481822692</v>
+        <v>-0.02604026996537451</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004275830408774906</v>
+        <v>0.176546614123666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6038940756073577</v>
+        <v>0.7423692427164154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3577588842511473</v>
+        <v>0.3098526244052843</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.07977624735140383</v>
+        <v>-0.1486952803690603</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2571839854472567</v>
+        <v>0.09400585278179996</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0953431498760572</v>
+        <v>-0.04885413346124716</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1820152818921402</v>
+        <v>0.2354826612330005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4141283908450721</v>
+        <v>0.3537576192456388</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6768765576996311</v>
+        <v>0.7287084004792532</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2089607216717595</v>
+        <v>-0.0853834540398546</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1891635477610548</v>
+        <v>-0.04214449161884652</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09876520927772837</v>
+        <v>0.04384743241956708</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1797756300819641</v>
+        <v>0.1201375754496085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1786760074268439</v>
+        <v>0.4141283937783277</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8099499463760979</v>
+        <v>0.6768765515741373</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.117113722648038</v>
+        <v>-0.2089607218525003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.368662757307742</v>
+        <v>0.1891635575233649</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02002121803671284</v>
+        <v>0.09876520930910632</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1095116331027514</v>
+        <v>0.1797756116882539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3537576155081517</v>
+        <v>0.1786760072394093</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7287083983749632</v>
+        <v>0.8099499499390324</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.08538345296459829</v>
+        <v>-0.1171137216070684</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04214449516706694</v>
+        <v>0.3686627600295774</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04384743022632836</v>
+        <v>-0.02002121698555157</v>
       </c>
       <c r="G11" t="n">
-        <v>0.120137590117086</v>
+        <v>0.109511613820623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03196500430225318</v>
+        <v>-0.06964050218527232</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06645709925786754</v>
+        <v>0.2243052281274516</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6956263833599418</v>
+        <v>-0.425094254499977</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04457261874194585</v>
+        <v>0.7486728992905544</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6123584676709577</v>
+        <v>-0.08020597187844486</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04113476818887995</v>
+        <v>0.06481862667290798</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06964049994496507</v>
+        <v>0.0319650030291606</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2243052247501489</v>
+        <v>-0.06645710093387446</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4250942590127778</v>
+        <v>0.6956263832122191</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7486729069101182</v>
+        <v>-0.04457262357234726</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.08020597117573099</v>
+        <v>0.6123584674726834</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0648186453149729</v>
+        <v>-0.04113475865351976</v>
       </c>
     </row>
     <row r="14">
@@ -909,22 +909,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02114278615597229</v>
+        <v>0.02114278624599734</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03947992269536311</v>
+        <v>-0.0394799237868179</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7957449365724633</v>
+        <v>0.7957449274713086</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08782706945966973</v>
+        <v>-0.08782706985866218</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06483515062655353</v>
+        <v>0.06483515176334372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04245536522253616</v>
+        <v>0.04245536555455749</v>
       </c>
     </row>
     <row r="15">
@@ -934,122 +934,122 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1933922648705318</v>
+        <v>-0.1933922663963668</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.255600560441922</v>
+        <v>-0.2556005592967998</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7735816167011419</v>
+        <v>0.773581625821496</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2675924872697262</v>
+        <v>-0.2675924936094687</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.05058705957915144</v>
+        <v>-0.05058706305456147</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.122609759221589</v>
+        <v>-0.1226097451980539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05709370278453828</v>
+        <v>0.1957216577281545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04107575833367882</v>
+        <v>0.1330977673747092</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01144308942539601</v>
+        <v>-0.2320824147020762</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6493597783441062</v>
+        <v>0.5572080865392531</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01494328646056924</v>
+        <v>0.08212745593880014</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05784573595036607</v>
+        <v>0.1166837902915347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1957216586411328</v>
+        <v>0.05709370079835768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1330977699167979</v>
+        <v>0.04107575839454124</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2320824156966577</v>
+        <v>0.01144309161534517</v>
       </c>
       <c r="E17" t="n">
-        <v>0.557208074984486</v>
+        <v>0.6493597845332196</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08212745607135197</v>
+        <v>0.01494328644892787</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1166838075394225</v>
+        <v>0.05784571466272993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2164852247219817</v>
+        <v>0.02896968170598581</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07008131275446075</v>
+        <v>0.001264417580501209</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05054873946419249</v>
+        <v>0.1484947681480627</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01544327755236579</v>
+        <v>0.04764862197248315</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6764703199961676</v>
+        <v>0.930383769696609</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1327983164188009</v>
+        <v>-0.0001998225467911291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02896968143996763</v>
+        <v>-0.2164852199556543</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001264419660544258</v>
+        <v>0.07008131508313435</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1484947681467184</v>
+        <v>-0.05054873816953474</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04764862426828675</v>
+        <v>-0.01544327158634666</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9303837669991203</v>
+        <v>0.6764703142557362</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0001998264407182237</v>
+        <v>0.1327983047961108</v>
       </c>
     </row>
     <row r="20">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3059368136689882</v>
+        <v>0.3059368022168474</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1540730311070228</v>
+        <v>0.15407302917705</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02452183694328431</v>
+        <v>0.02452184270766933</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02957443454263791</v>
+        <v>0.02957445036394822</v>
       </c>
       <c r="F20" t="n">
-        <v>0.177786508706429</v>
+        <v>0.1777864989319781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.916922432095376</v>
+        <v>0.9169225704341123</v>
       </c>
     </row>
     <row r="21">
@@ -1084,22 +1084,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1389414224793419</v>
+        <v>0.1389414344536003</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2227513390861859</v>
+        <v>0.2227513562271251</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1031614086759379</v>
+        <v>-0.103161414068938</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3534990172757252</v>
+        <v>0.3534990309258844</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02460918424525475</v>
+        <v>-0.0246091785685976</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4969878203728899</v>
+        <v>0.4969877368699459</v>
       </c>
     </row>
   </sheetData>
@@ -1216,22 +1216,22 @@
         <v>0.9800951980275844</v>
       </c>
       <c r="I2" t="n">
-        <v>3.876385832299028</v>
+        <v>3.876385844804868</v>
       </c>
       <c r="J2" t="n">
-        <v>2.163351740542134</v>
+        <v>2.163351754576424</v>
       </c>
       <c r="K2" t="n">
-        <v>2.104589607502145</v>
+        <v>2.104589603640539</v>
       </c>
       <c r="L2" t="n">
-        <v>2.029886914945191</v>
+        <v>2.029886946000014</v>
       </c>
       <c r="M2" t="n">
-        <v>1.803101112928466</v>
+        <v>1.803101106722311</v>
       </c>
       <c r="N2" t="n">
-        <v>1.348998914584063</v>
+        <v>1.348999024754483</v>
       </c>
     </row>
     <row r="3">
@@ -1262,22 +1262,22 @@
         <v>0.03629982214916979</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1938192916149514</v>
+        <v>0.1938192922402434</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1081675870271067</v>
+        <v>0.1081675877288212</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1052294803751072</v>
+        <v>0.105229480182027</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1014943457472595</v>
+        <v>0.1014943473000007</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09015505564642332</v>
+        <v>0.09015505533611558</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06744994572920314</v>
+        <v>0.06744995123772414</v>
       </c>
     </row>
     <row r="4">
@@ -1308,22 +1308,22 @@
         <v>0.5724388167278883</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1938192916149514</v>
+        <v>0.1938192922402434</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3019868786420581</v>
+        <v>0.3019868799690646</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4072163590171654</v>
+        <v>0.4072163601510915</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5087107047644249</v>
+        <v>0.5087107074510923</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5988657604108483</v>
+        <v>0.5988657627872078</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6663157061400514</v>
+        <v>0.6663157140249319</v>
       </c>
     </row>
     <row r="5">
@@ -1354,22 +1354,22 @@
         <v>0.06341257980488262</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2908820696089264</v>
+        <v>0.2908820671051909</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1623368412756148</v>
+        <v>0.1623368404077197</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1579273599667922</v>
+        <v>0.1579273578081779</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1523217069806346</v>
+        <v>0.1523217075084665</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1353038129157859</v>
+        <v>0.1353038108489547</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1012282092522459</v>
+        <v>0.1012282163214904</v>
       </c>
     </row>
   </sheetData>
@@ -1430,22 +1430,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.876385832299028</v>
+        <v>3.876385844804868</v>
       </c>
       <c r="C2" t="n">
-        <v>2.163351740542134</v>
+        <v>2.163351754576424</v>
       </c>
       <c r="D2" t="n">
-        <v>2.104589607502145</v>
+        <v>2.104589603640539</v>
       </c>
       <c r="E2" t="n">
-        <v>2.029886914945191</v>
+        <v>2.029886946000014</v>
       </c>
       <c r="F2" t="n">
-        <v>1.803101112928466</v>
+        <v>1.803101106722311</v>
       </c>
       <c r="G2" t="n">
-        <v>1.348998914584063</v>
+        <v>1.348999024754483</v>
       </c>
     </row>
     <row r="3">
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1938192916149514</v>
+        <v>0.1938192922402434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1081675870271067</v>
+        <v>0.1081675877288212</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1052294803751072</v>
+        <v>0.105229480182027</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1014943457472595</v>
+        <v>0.1014943473000007</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09015505564642332</v>
+        <v>0.09015505533611558</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06744994572920314</v>
+        <v>0.06744995123772414</v>
       </c>
     </row>
     <row r="4">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1938192916149514</v>
+        <v>0.1938192922402434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3019868786420581</v>
+        <v>0.3019868799690646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4072163590171654</v>
+        <v>0.4072163601510915</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5087107047644249</v>
+        <v>0.5087107074510923</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5988657604108483</v>
+        <v>0.5988657627872078</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6663157061400514</v>
+        <v>0.6663157140249319</v>
       </c>
     </row>
     <row r="5">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2908820696089264</v>
+        <v>0.2908820671051909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1623368412756148</v>
+        <v>0.1623368404077197</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1579273599667922</v>
+        <v>0.1579273578081779</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1523217069806346</v>
+        <v>0.1523217075084665</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1353038129157859</v>
+        <v>0.1353038108489547</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1012282092522459</v>
+        <v>0.1012282163214904</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QHISPC', 'QEDLESHI', 'QESL', 'PPUNIT', 'QMOHO', 'QEXTRCT', 'QNOHLTH', 'PERCAP', 'QRICH', 'MDHSEVAL', 'QAGEDEP', 'QSSBEN', 'MEDAGE', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMLBR', 'QFEMALE', 'QFHH', 'QFAM']]</t>
+          <t>[['PPUNIT', 'QMOHO', 'QNOHLTH', 'QESL', 'QEXTRCT', 'QEDLESHI', 'QHISPC', 'MDHSEVAL', 'PERCAP', 'QRICH', 'QAGEDEP', 'QSSBEN', 'MEDAGE', 'QRENTER', 'QPOVTY', 'QNOAUTO', 'QFEMALE', 'QFEMLBR', 'QFHH', 'QFAM']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tests/test_project_economic_index/Documentation/test_project_economic_index_2020_bg_config_2020_bg.xlsx
+++ b/tests/test_project_economic_index/Documentation/test_project_economic_index_2020_bg_config_2020_bg.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QNOHLTH' 'QEDLESHI' 'QMOHO' 'QHISPC' 'QESL' 'PPUNIT' 'QEXTRCT']</t>
+          <t>['QHISPC' 'QEDLESHI' 'PPUNIT' 'QNOHLTH' 'QMOHO' 'QEXTRCT' 'QESL']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MDHSEVAL' 'PERCAP' 'QRICH']</t>
+          <t>['QRICH' 'PERCAP' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QSSBEN' 'QAGEDEP' 'MEDAGE']</t>
         </is>
       </c>
     </row>
@@ -605,26 +605,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.603894074600524</v>
+        <v>0.7423692386463588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.357758882978154</v>
+        <v>0.3098526137192778</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07977624901294424</v>
+        <v>-0.1486952811910144</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2571839840388871</v>
+        <v>0.0940058277428185</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0953431501323868</v>
+        <v>-0.04885413422393796</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1820152835898004</v>
+        <v>0.2354827185435848</v>
       </c>
     </row>
     <row r="3">
@@ -634,172 +634,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8352779365549134</v>
+        <v>0.8352779341399313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1442623950358561</v>
+        <v>0.144262392681464</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002317829822677498</v>
+        <v>0.002317829222259678</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1530479572797496</v>
+        <v>0.1530479488303096</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0260402696020454</v>
+        <v>-0.02604026937407665</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1765466353542634</v>
+        <v>0.1765466570058839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QMOHO</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4515387050767148</v>
+        <v>0.5835172963249187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1342118382134878</v>
+        <v>-0.03689746393200526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03533061782732086</v>
+        <v>-0.1272499897482892</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1630772614441676</v>
+        <v>-0.4204908350348629</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01675659615873322</v>
+        <v>0.1006093517024169</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001862668634127683</v>
+        <v>0.1309775090170414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7423692388326452</v>
+        <v>0.6038940711865646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.309852617627952</v>
+        <v>0.3577588796674576</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1486952813537575</v>
+        <v>-0.07977624954568799</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09400583988266838</v>
+        <v>0.2571839751543534</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04885413360601782</v>
+        <v>-0.09534314958134672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2354826886781601</v>
+        <v>0.1820153096201313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QMOHO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7463154832194251</v>
+        <v>0.4515387045357346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1383746636970302</v>
+        <v>0.134211839393414</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.06828868435548005</v>
+        <v>0.03533061707150893</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2025402347623065</v>
+        <v>-0.1630772623836109</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04405009645653984</v>
+        <v>-0.01675659561419059</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09086865635785962</v>
+        <v>0.001862667644789835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5835173043676848</v>
+        <v>0.7662017902569455</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03689747034785913</v>
+        <v>0.1246192477054453</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1272499984912719</v>
+        <v>0.05703177800118928</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.420490834523394</v>
+        <v>0.1061640323174794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1006093565705372</v>
+        <v>-0.1262460468231434</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1309775114443296</v>
+        <v>0.004275824991327911</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7662017850273629</v>
+        <v>0.7463154828510359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1246192450885925</v>
+        <v>0.138374664490147</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05703178017236467</v>
+        <v>-0.06828868673856948</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1061640309855898</v>
+        <v>0.2025402305358891</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1262460495492768</v>
+        <v>-0.04405009424635162</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004275832042728151</v>
+        <v>0.0908686652192319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3537576177326007</v>
+        <v>0.1786760046270971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.728708397477456</v>
+        <v>0.8099499577431223</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08538345544805348</v>
+        <v>-0.1171137229106055</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04214449787821364</v>
+        <v>0.3686627523885821</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04384743162599291</v>
+        <v>-0.02002121967092128</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1201375910541816</v>
+        <v>0.1095116505316316</v>
       </c>
     </row>
     <row r="10">
@@ -809,147 +809,147 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4141283948448692</v>
+        <v>0.4141283890229834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6768765496546902</v>
+        <v>0.6768765574816749</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2089607286193252</v>
+        <v>-0.2089607231317229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1891635466508217</v>
+        <v>0.1891635379709244</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09876521379516146</v>
+        <v>0.09876520924357997</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1797756285106475</v>
+        <v>0.1797756504586701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1786760071298912</v>
+        <v>0.3537576150022115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8099499535286738</v>
+        <v>0.7287083863142529</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1171137241075972</v>
+        <v>-0.08538345462115741</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3686627567524439</v>
+        <v>-0.04214449904698814</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02002121876181436</v>
+        <v>0.04384742951064152</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1095116346378344</v>
+        <v>0.1201376075058906</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1933922666944838</v>
+        <v>0.02114278602825117</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2556005550515521</v>
+        <v>-0.03947992314330035</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7735816261444826</v>
+        <v>0.7957449348695448</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2675924849160231</v>
+        <v>-0.08782706916529817</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05058706395322337</v>
+        <v>0.06483515040556219</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1226097558662082</v>
+        <v>0.04245536372959157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03196500465986513</v>
+        <v>-0.06964049713061797</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06645709777349817</v>
+        <v>0.2243052257468492</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6956263852116005</v>
+        <v>-0.4250942611563014</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04457261586979014</v>
+        <v>0.748672897213706</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6123584688269658</v>
+        <v>-0.08020597053744492</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04113476881580901</v>
+        <v>0.06481866547333122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02114278796213884</v>
+        <v>0.03196500460674368</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03947992589806195</v>
+        <v>-0.06645709545612578</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7957449149965996</v>
+        <v>0.6956263853785849</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08782707164477095</v>
+        <v>-0.0445726136135381</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06483515702374183</v>
+        <v>0.6123584636448547</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04245536193260726</v>
+        <v>-0.04113477651971998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.06964049806608209</v>
+        <v>-0.1933922641398909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2243052261382572</v>
+        <v>-0.2556005587978882</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4250942592547845</v>
+        <v>0.7735816197533097</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7486728920796729</v>
+        <v>-0.2675924796043616</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.08020597213040555</v>
+        <v>-0.05058706125601907</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06481864896006051</v>
+        <v>-0.1226097727022921</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05709370345735398</v>
+        <v>0.05709370240354526</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04107575770154317</v>
+        <v>0.04107575978777631</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01144308445276839</v>
+        <v>0.01144308572439251</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6493597778406488</v>
+        <v>0.6493597738889589</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01494328806438099</v>
+        <v>0.01494328533309805</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05784573579841536</v>
+        <v>0.05784575698317934</v>
       </c>
     </row>
     <row r="17">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.195721660514214</v>
+        <v>0.1957216590766458</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1330977661374564</v>
+        <v>0.1330977694425077</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.232082422058575</v>
+        <v>-0.2320824183981592</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5572080754369326</v>
+        <v>0.5572080729936859</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08212745972616325</v>
+        <v>0.08212745702108704</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1166838051404206</v>
+        <v>0.1166838243224327</v>
       </c>
     </row>
     <row r="18">
@@ -1009,22 +1009,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02896967843713227</v>
+        <v>0.02896968249554237</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001264422027701123</v>
+        <v>0.001264421288077428</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1484947735898048</v>
+        <v>0.1484947700777215</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04764862474321203</v>
+        <v>0.04764862785058008</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9303837448901879</v>
+        <v>0.93038377219637</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0001998228847266616</v>
+        <v>-0.000199832607597545</v>
       </c>
     </row>
     <row r="19">
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2164852240703564</v>
+        <v>-0.2164852291024569</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07008131135700757</v>
+        <v>0.07008130955042491</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05054874176436118</v>
+        <v>-0.05054873883337752</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01544327700255674</v>
+        <v>-0.0154432841182534</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6764703293564135</v>
+        <v>0.6764703247166837</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1327983133392384</v>
+        <v>0.1327983298266899</v>
       </c>
     </row>
     <row r="20">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1389414219267926</v>
+        <v>0.1389414099062995</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2227513390433933</v>
+        <v>0.2227513224193496</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1031614093261857</v>
+        <v>-0.1031614041672681</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3534990174219564</v>
+        <v>0.3534990026226804</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02460918576430193</v>
+        <v>-0.0246091896468758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4969878248157796</v>
+        <v>0.4969879039501903</v>
       </c>
     </row>
     <row r="21">
@@ -1084,22 +1084,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3059368149313857</v>
+        <v>0.3059368255467413</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1540730287785385</v>
+        <v>0.1540730329959606</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02452183523950249</v>
+        <v>0.02452183154089051</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02957443163844161</v>
+        <v>0.02957441928645713</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1777865110353016</v>
+        <v>0.1777865181029581</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9169224343464732</v>
+        <v>0.9169222880891403</v>
       </c>
     </row>
   </sheetData>
@@ -1195,43 +1195,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.095984283209816</v>
+        <v>4.095984304972304</v>
       </c>
       <c r="C2" t="n">
-        <v>2.853394873491776</v>
+        <v>2.853394877847649</v>
       </c>
       <c r="D2" t="n">
-        <v>2.240850447181389</v>
+        <v>2.240850447925763</v>
       </c>
       <c r="E2" t="n">
-        <v>1.887013627171163</v>
+        <v>1.887013633890712</v>
       </c>
       <c r="F2" t="n">
-        <v>1.826686531450328</v>
+        <v>1.826686526494708</v>
       </c>
       <c r="G2" t="n">
-        <v>1.571823091120927</v>
+        <v>1.571823101626026</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9800951980275844</v>
+        <v>0.9800951413563275</v>
       </c>
       <c r="I2" t="n">
-        <v>3.876385843123279</v>
+        <v>3.876385828312293</v>
       </c>
       <c r="J2" t="n">
-        <v>2.163351733542009</v>
+        <v>2.16335172584358</v>
       </c>
       <c r="K2" t="n">
-        <v>2.104589600685687</v>
+        <v>2.104589615137145</v>
       </c>
       <c r="L2" t="n">
-        <v>2.029886893292444</v>
+        <v>2.029886862433484</v>
       </c>
       <c r="M2" t="n">
-        <v>1.803101091594401</v>
+        <v>1.803101127586969</v>
       </c>
       <c r="N2" t="n">
-        <v>1.348998920139523</v>
+        <v>1.348998796372441</v>
       </c>
     </row>
     <row r="3">
@@ -1241,43 +1241,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1517031216003636</v>
+        <v>0.1517031224063816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1056812916108065</v>
+        <v>0.1056812917721351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0829944610067181</v>
+        <v>0.08299446103428752</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06988939359893195</v>
+        <v>0.06988939384780417</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06765505672038251</v>
+        <v>0.06765505653684102</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05821567004151582</v>
+        <v>0.05821567043059354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03629982214916979</v>
+        <v>0.03629982005023435</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1938192921561639</v>
+        <v>0.1938192914156147</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1081675866771005</v>
+        <v>0.108167586292179</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1052294800342844</v>
+        <v>0.1052294807568573</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1014943446646222</v>
+        <v>0.1014943431216742</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09015505457972003</v>
+        <v>0.09015505637934847</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06744994600697614</v>
+        <v>0.06744993981862205</v>
       </c>
     </row>
     <row r="4">
@@ -1287,43 +1287,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1517031216003636</v>
+        <v>0.1517031224063816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2573844132111701</v>
+        <v>0.2573844141785168</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3403788742178881</v>
+        <v>0.3403788752128043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4102682678168201</v>
+        <v>0.4102682690606085</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4779233245372027</v>
+        <v>0.4779233255974495</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5361389945787185</v>
+        <v>0.536138996028043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5724388167278883</v>
+        <v>0.5724388160782774</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1938192921561639</v>
+        <v>0.1938192914156147</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3019868788332644</v>
+        <v>0.3019868777077936</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4072163588675488</v>
+        <v>0.4072163584646509</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5087107035321711</v>
+        <v>0.5087107015863251</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5988657581118911</v>
+        <v>0.5988657579656737</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6663157041188673</v>
+        <v>0.6663156977842957</v>
       </c>
     </row>
     <row r="5">
@@ -1333,43 +1333,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2650119404332366</v>
+        <v>0.2650119421420178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1846158725134858</v>
+        <v>0.1846158730048171</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1449839853298592</v>
+        <v>0.1449839855425502</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1220905912677725</v>
+        <v>0.1220905918410802</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1181874022923618</v>
+        <v>0.1181874021058516</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1016976283584014</v>
+        <v>0.1016976291534935</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06341257980488262</v>
+        <v>0.06341257621018938</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2908820713035267</v>
+        <v>0.2908820729574935</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1623368412427571</v>
+        <v>0.1623368422083848</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1579273599343412</v>
+        <v>0.1579273625201651</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1523217058178718</v>
+        <v>0.1523217049503322</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1353038117253152</v>
+        <v>0.1353038157124944</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1012282099761878</v>
+        <v>0.10122820165113</v>
       </c>
     </row>
   </sheetData>
@@ -1430,22 +1430,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.876385843123279</v>
+        <v>3.876385828312293</v>
       </c>
       <c r="C2" t="n">
-        <v>2.163351733542009</v>
+        <v>2.16335172584358</v>
       </c>
       <c r="D2" t="n">
-        <v>2.104589600685687</v>
+        <v>2.104589615137145</v>
       </c>
       <c r="E2" t="n">
-        <v>2.029886893292444</v>
+        <v>2.029886862433484</v>
       </c>
       <c r="F2" t="n">
-        <v>1.803101091594401</v>
+        <v>1.803101127586969</v>
       </c>
       <c r="G2" t="n">
-        <v>1.348998920139523</v>
+        <v>1.348998796372441</v>
       </c>
     </row>
     <row r="3">
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1938192921561639</v>
+        <v>0.1938192914156147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1081675866771005</v>
+        <v>0.108167586292179</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1052294800342844</v>
+        <v>0.1052294807568573</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1014943446646222</v>
+        <v>0.1014943431216742</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09015505457972003</v>
+        <v>0.09015505637934847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06744994600697614</v>
+        <v>0.06744993981862205</v>
       </c>
     </row>
     <row r="4">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1938192921561639</v>
+        <v>0.1938192914156147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3019868788332644</v>
+        <v>0.3019868777077936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4072163588675488</v>
+        <v>0.4072163584646509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5087107035321711</v>
+        <v>0.5087107015863251</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5988657581118911</v>
+        <v>0.5988657579656737</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6663157041188673</v>
+        <v>0.6663156977842957</v>
       </c>
     </row>
     <row r="5">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2908820713035267</v>
+        <v>0.2908820729574935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1623368412427571</v>
+        <v>0.1623368422083848</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1579273599343412</v>
+        <v>0.1579273625201651</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1523217058178718</v>
+        <v>0.1523217049503322</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1353038117253152</v>
+        <v>0.1353038157124944</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1012282099761878</v>
+        <v>0.10122820165113</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QNOHLTH', 'QEDLESHI', 'QMOHO', 'QHISPC', 'QESL', 'PPUNIT', 'QEXTRCT', 'MDHSEVAL', 'PERCAP', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR', 'QFAM', 'QFHH']]</t>
+          <t>[['QHISPC', 'QEDLESHI', 'PPUNIT', 'QNOHLTH', 'QMOHO', 'QEXTRCT', 'QESL', 'QRICH', 'PERCAP', 'MDHSEVAL', 'QSSBEN', 'QAGEDEP', 'MEDAGE', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR', 'QFAM', 'QFHH']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
